--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/odin_test_py/refdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/odin_y_yz/odin_test_py/refdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="820" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -194,15 +194,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,7 +484,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,36 +495,36 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -554,9 +555,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:W2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,29 +583,29 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -1,146 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/odin_y_yz/odin_test_py/refdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="820" windowWidth="28160" windowHeight="15580" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="check" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>#入参参数列表</t>
-    <rPh sb="1" eb="2">
-      <t>ru'can</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lie'b</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是说明1</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>test1=jkj</t>
+  </si>
+  <si>
+    <t>test2=2</t>
+  </si>
+  <si>
+    <t>这是说明2</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>test11=jkj1</t>
+  </si>
+  <si>
+    <t>test21=21</t>
   </si>
   <si>
     <t>#响应返回参数校验</t>
-    <rPh sb="1" eb="2">
-      <t>xiang'y</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jiao'yan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exlpain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>explain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是说明</t>
-    <rPh sb="0" eb="1">
-      <t>zhe'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shuo'm</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1=jkj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2=2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是说明2</t>
-    <rPh sb="0" eb="1">
-      <t>zhe'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shuo'm</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp2=jjs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp23=kkj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +82,13 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,12 +96,162 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,12 +266,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,25 +459,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -261,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -296,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -470,42 +1028,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -525,93 +1081,101 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2"/>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:23">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:W2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>#入参参数列表</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>#响应返回参数校验</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -64,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -101,22 +104,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,66 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,24 +216,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,10 +240,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,19 +275,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,133 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +483,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -557,151 +536,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1126,31 +1129,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:23">
+    <row r="2" s="2" customFormat="1" spans="1:24">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1170,10 +1176,11 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="D2:X2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>#入参参数列表</t>
   </si>
@@ -26,6 +26,12 @@
     <t>explain</t>
   </si>
   <si>
+    <t>isrun</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -33,6 +39,9 @@
   </si>
   <si>
     <t>这是说明1</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1</t>
   </si>
   <si>
     <t>url1</t>
@@ -69,8 +78,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -103,8 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,9 +127,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,19 +164,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,16 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -200,55 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,181 +284,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +469,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,54 +561,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -536,179 +569,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -718,6 +727,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,22 +1047,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:24">
+    <row r="2" s="5" customFormat="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,11 +1074,15 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1085,42 +1101,60 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1139,7 +1173,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1152,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,40 +4,53 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="check" sheetId="2" r:id="rId2"/>
+    <sheet name="配置说明" sheetId="3" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId2"/>
+    <sheet name="check" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>input字段说明</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>casename</t>
+  </si>
+  <si>
+    <t>isrun</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>#入参参数列表</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>isrun</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>这是说明1</t>
   </si>
   <si>
@@ -66,9 +79,6 @@
   </si>
   <si>
     <t>#响应返回参数校验</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
 </sst>
 </file>
@@ -77,11 +87,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,23 +130,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,35 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -187,6 +183,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
@@ -194,9 +221,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,60 +267,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,31 +302,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,157 +510,93 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,6 +605,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,24 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,17 +672,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,166 +697,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -726,59 +854,72 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1045,26 +1186,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" ht="18.35" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" ht="18.35" spans="1:5">
+      <c r="A16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="16"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="16"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="16"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="16"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="16"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:26">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1080,74 +1413,77 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1160,25 +1496,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:24">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1186,12 +1523,14 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1211,10 +1550,11 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="E2:Y2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>input字段说明</t>
   </si>
@@ -49,6 +49,42 @@
   </si>
   <si>
     <t>#入参参数列表</t>
+  </si>
+  <si>
+    <t>caseID</t>
+  </si>
+  <si>
+    <t>params_1</t>
+  </si>
+  <si>
+    <t>params_2</t>
+  </si>
+  <si>
+    <t>params_3</t>
+  </si>
+  <si>
+    <t>params_4</t>
+  </si>
+  <si>
+    <t>params_5</t>
+  </si>
+  <si>
+    <t>params_6</t>
+  </si>
+  <si>
+    <t>params_7</t>
+  </si>
+  <si>
+    <t>params_8</t>
+  </si>
+  <si>
+    <t>params_9</t>
+  </si>
+  <si>
+    <t>params_10</t>
+  </si>
+  <si>
+    <t>params_11</t>
   </si>
   <si>
     <t>这是说明1</t>
@@ -145,6 +181,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -161,7 +211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +232,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -183,6 +247,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -191,31 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,60 +316,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,25 +344,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,73 +392,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,97 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +637,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -682,192 +715,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,185 +1205,186 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="18.35" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="20"/>
-    </row>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="10" ht="18.35"/>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" ht="18.35" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1381,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1399,7 +1415,7 @@
     </row>
     <row r="2" s="5" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1416,51 +1432,71 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1468,22 +1504,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1502,14 +1538,14 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1529,18 +1565,38 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1553,9 +1609,6 @@
       <c r="Y2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:Y2"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11420" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -151,13 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,6 +159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -175,21 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,27 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,7 +198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +219,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -255,31 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -309,9 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,175 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,8 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,7 +631,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +666,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,21 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -718,148 +718,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,9 +868,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1397,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1413,7 +1413,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:27">
+    <row r="2" s="6" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1432,49 +1432,49 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
@@ -1486,7 +1486,7 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
@@ -1509,7 +1509,7 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
@@ -1535,13 +1535,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
@@ -1564,51 +1564,101 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>input字段说明</t>
   </si>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>#响应返回参数校验</t>
+  </si>
+  <si>
+    <t>check_1</t>
+  </si>
+  <si>
+    <t>check_2</t>
+  </si>
+  <si>
+    <t>check_3</t>
+  </si>
+  <si>
+    <t>check_4</t>
+  </si>
+  <si>
+    <t>check_5</t>
+  </si>
+  <si>
+    <t>check_6</t>
+  </si>
+  <si>
+    <t>check_7</t>
+  </si>
+  <si>
+    <t>check_8</t>
+  </si>
+  <si>
+    <t>check_9</t>
+  </si>
+  <si>
+    <t>check_10</t>
+  </si>
+  <si>
+    <t>check_11</t>
   </si>
 </sst>
 </file>
@@ -122,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -174,10 +207,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,16 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,11 +274,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,75 +322,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,37 +383,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,139 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -690,21 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -715,151 +724,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,7 +1571,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1565,37 +1598,37 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11420" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="7830" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>input字段说明</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>caseID</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
   <si>
     <t>params_1</t>
@@ -155,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -207,6 +210,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -216,6 +262,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -231,43 +331,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -282,37 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -320,35 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -383,19 +386,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,145 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,10 +594,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -624,29 +647,24 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +680,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,23 +735,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,175 +751,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -901,73 +904,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1234,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -1242,9 +1245,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="16384" width="8.89166666666667" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1254,63 +1257,63 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="16"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" ht="18.35" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="10" ht="18.35"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="10" ht="16.5"/>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>8</v>
@@ -1318,106 +1321,106 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" ht="18.35" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="19"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="19"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="19"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="19"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="19"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="19"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15"/>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15"/>
+      <c r="A36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1426,15 +1429,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
@@ -1454,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1465,71 +1468,71 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="Q2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1537,22 +1540,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1566,19 +1569,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1597,71 +1600,71 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="O2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1669,28 +1672,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1"/>
+    <hyperlink ref="D3" r:id="rId1" display="0"/>
+    <hyperlink ref="D4" r:id="rId1" display="0"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -93,19 +93,19 @@
     <t>这是说明1</t>
   </si>
   <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>test1=jkj</t>
+  </si>
+  <si>
+    <t>test2=2</t>
+  </si>
+  <si>
+    <t>这是说明2</t>
+  </si>
+  <si>
     <t>http://127.0.0.1</t>
-  </si>
-  <si>
-    <t>url1</t>
-  </si>
-  <si>
-    <t>test1=jkj</t>
-  </si>
-  <si>
-    <t>test2=2</t>
-  </si>
-  <si>
-    <t>这是说明2</t>
   </si>
   <si>
     <t>url2</t>
@@ -213,12 +213,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,12 +227,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -261,10 +254,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +278,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -285,69 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,181 +386,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +687,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,8 +710,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -735,18 +737,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -754,148 +754,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1522,17 +1522,15 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1540,13 +1538,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1560,7 +1558,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1"/>
     <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,7 +1570,7 @@
   <sheetPr/>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1658,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1672,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>input字段说明</t>
   </si>
@@ -93,31 +93,16 @@
     <t>这是说明1</t>
   </si>
   <si>
-    <t>url1</t>
-  </si>
-  <si>
-    <t>test1=jkj</t>
-  </si>
-  <si>
-    <t>test2=2</t>
-  </si>
-  <si>
-    <t>这是说明2</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1</t>
-  </si>
-  <si>
-    <t>url2</t>
-  </si>
-  <si>
-    <t>test11=jkj1</t>
-  </si>
-  <si>
-    <t>test21=21</t>
+    <t>172.19.102.25:8080</t>
+  </si>
+  <si>
+    <t>api/v1/taskconfig/queryOperationUnitPage</t>
   </si>
   <si>
     <t>#响应返回参数校验</t>
+  </si>
+  <si>
+    <t>error_code</t>
   </si>
   <si>
     <t>check_1</t>
@@ -158,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -211,7 +196,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,15 +231,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,27 +271,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,16 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,53 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,181 +371,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,30 +579,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -647,6 +612,26 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -654,17 +639,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,11 +696,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,184 +736,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,73 +889,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -1237,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -1245,9 +1230,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="8.89166666666667" style="7"/>
+    <col min="1" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1257,63 +1242,63 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" ht="18.35" spans="1:5">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="10" ht="16.5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="10" ht="18.35"/>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>8</v>
@@ -1321,106 +1306,106 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" ht="18.35" spans="1:5">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="19"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="19"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="19"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="19"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="19"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="19"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="19"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="19"/>
+      <c r="A36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1429,15 +1414,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
@@ -1468,51 +1453,51 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1522,63 +1507,36 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1595,53 +1553,53 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1651,46 +1609,16 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="0"/>
-    <hyperlink ref="D4" r:id="rId1" display="0"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12840" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>input字段说明</t>
   </si>
@@ -24,22 +24,43 @@
     <t>id</t>
   </si>
   <si>
+    <t>分解：</t>
+  </si>
+  <si>
     <t>casename</t>
   </si>
   <si>
+    <t>组装</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>isrun</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>send_req</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
+    <t>rsp解析</t>
+  </si>
+  <si>
     <t>params</t>
+  </si>
+  <si>
+    <t>校验+入库</t>
+  </si>
+  <si>
+    <t>读取</t>
   </si>
   <si>
     <t>check</t>
@@ -143,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -216,6 +237,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -225,7 +322,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,105 +358,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -377,37 +398,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,115 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,15 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,15 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,21 +694,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -728,6 +716,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -736,145 +733,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1224,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="16384" width="8.88888888888889" style="7"/>
   </cols>
@@ -1244,64 +1265,93 @@
       <c r="D1" s="9"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="18"/>
-    </row>
-    <row r="8" ht="18.35" spans="1:5">
+      <c r="H7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="19"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" ht="18.35"/>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1316,7 +1366,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1325,13 +1375,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1340,7 +1390,7 @@
     </row>
     <row r="16" ht="18.35" spans="1:5">
       <c r="A16" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1426,7 +1476,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1436,55 +1486,55 @@
     </row>
     <row r="2" s="6" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1502,16 +1552,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -1528,7 +1578,7 @@
   <sheetPr/>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1586,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1544,49 +1594,49 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1604,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12840" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="13360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置说明" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>input字段说明</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>caseID</t>
+  </si>
+  <si>
+    <t>orderid</t>
   </si>
   <si>
     <t>run</t>
@@ -164,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -230,6 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -238,14 +249,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,10 +310,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,17 +341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,55 +356,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -398,43 +401,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,127 +521,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,6 +692,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +735,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -713,189 +760,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,7 +1250,7 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1331,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="18.35" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1466,15 +1469,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1483,8 +1486,9 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:27">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1492,19 +1496,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>21</v>
@@ -1536,7 +1540,9 @@
       <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -1546,26 +1552,27 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="b">
+        <v>32</v>
+      </c>
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="4"/>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,7 +1593,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1603,40 +1610,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1654,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>

--- a/odin_test_py/refdata/TaskOs_api_refdata.xlsx
+++ b/odin_test_py/refdata/TaskOs_api_refdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>input字段说明</t>
   </si>
@@ -75,7 +75,7 @@
     <t>caseID</t>
   </si>
   <si>
-    <t>orderid</t>
+    <t>order_id</t>
   </si>
   <si>
     <t>run</t>
@@ -114,13 +114,31 @@
     <t>params_11</t>
   </si>
   <si>
-    <t>这是说明1</t>
-  </si>
-  <si>
-    <t>172.19.102.25:8080</t>
-  </si>
-  <si>
-    <t>api/v1/taskconfig/queryOperationUnitPage</t>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>smoke测试</t>
+  </si>
+  <si>
+    <t>api/v1/taskconfig/queryConfig</t>
+  </si>
+  <si>
+    <t>code=BC_Death</t>
+  </si>
+  <si>
+    <t>operationUnitId=163585918190485504</t>
+  </si>
+  <si>
+    <t>code_is_null</t>
+  </si>
+  <si>
+    <t>code为空</t>
+  </si>
+  <si>
+    <t>operationUnitId_is_null</t>
+  </si>
+  <si>
+    <t>operationUnitId为空</t>
   </si>
   <si>
     <t>#响应返回参数校验</t>
@@ -167,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +229,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -226,13 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -244,12 +261,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,16 +318,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,16 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,59 +385,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -395,181 +419,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +705,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -713,8 +761,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -734,181 +784,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -916,9 +940,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1256,209 +1281,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18"/>
-      <c r="H3" s="7" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="I4" s="7" t="s">
+      <c r="E4" s="18"/>
+      <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
-      <c r="I5" s="7" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19"/>
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="18"/>
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-      <c r="H7" s="7" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="19"/>
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="18.35" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="19"/>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="20"/>
+      <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="18.35"/>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" ht="18.35" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1469,13 +1494,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
@@ -1554,25 +1579,73 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="6:6">
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
       <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,17 +1656,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1610,40 +1683,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1663,19 +1736,46 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="0"/>
+    <hyperlink ref="D4" r:id="rId1" display="0"/>
+    <hyperlink ref="D5" r:id="rId1" display="0"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
